--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D830C8-3A02-48AB-8101-2142170BD808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C5942-F1F1-4E30-934E-5E94A4F10DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -158,6 +158,54 @@
   </si>
   <si>
     <t>https://talent.lingxigames.com/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.jd.com/#/myDeliver?type=present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/account/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.meituan.com/web/personalCenter/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/#/campus/my-apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaomi.jobs.f.mioffice.cn/internship/position/application?spread=6AA3R7B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -579,13 +627,86 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{03E781BC-2D08-426A-AE1D-C0B04D8D4322}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{B0387ED7-F04C-491D-B47A-40C158C614CB}"/>
+    <hyperlink ref="E4" r:id="rId3" location="/myDeliver?type=present" xr:uid="{B3468B2F-9CD8-41E4-9CC0-F2B3A5A5263A}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{31251A0C-5825-4F32-9BCD-DC2B01E4B2F1}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{88DE9050-0CE9-4FAA-B002-11ED88B78E31}"/>
+    <hyperlink ref="E7" r:id="rId6" location="/campus/my-apply" xr:uid="{D89BDCC8-0B55-4C63-A35C-9A61A137B4AC}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{F4D5D90F-064A-47BD-B789-2D7B32BED3AA}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{C7DF9E75-E98A-4E3E-857C-D97EFF7FAD43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C5942-F1F1-4E30-934E-5E94A4F10DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84D2DA-B0F4-4BB9-92BF-0DB4A61A3B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>https://xiaomi.jobs.f.mioffice.cn/internship/position/application?spread=6AA3R7B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.pingan.com/personalcenter/center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/shein/2932#/candidateHome/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -693,6 +717,33 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -704,9 +755,12 @@
     <hyperlink ref="E7" r:id="rId6" location="/campus/my-apply" xr:uid="{D89BDCC8-0B55-4C63-A35C-9A61A137B4AC}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{F4D5D90F-064A-47BD-B789-2D7B32BED3AA}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{C7DF9E75-E98A-4E3E-857C-D97EFF7FAD43}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{88729530-7CBE-4372-B542-089DA031BAB4}"/>
+    <hyperlink ref="E12" r:id="rId10" location="/candidateHome/applications" xr:uid="{8E667E93-0EAC-4686-AE0A-E50218302F3F}"/>
+    <hyperlink ref="E10" r:id="rId11" location="/candidateHome/applications" xr:uid="{9DD12FFA-E241-406C-8939-96E09994F70A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A84D2DA-B0F4-4BB9-92BF-0DB4A61A3B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C865A-B184-4DD2-A49D-8B4F6385AF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <r>
       <rPr>
@@ -230,6 +230,150 @@
   </si>
   <si>
     <t>https://app.mokahr.com/campus_apply/shein/2932#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://crm.finereporthelp.com/WebReport/decision/view/report?viewlet=recruit/%E7%BD%91%E7%94%B3%E6%9F%A5%E8%AF%A2.cpt&amp;ref_t=design&amp;op=write&amp;ref_c=d091904c-97a7-4d4f-bb62-ac5d5a580bf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.huawei.com/reccampportal/portal5/appjob-campus.html?classification=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://360campus.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神州信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dcits.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://beisen.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳找房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ke.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里大文娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.alibaba-dme.com/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天二院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚信科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.antgroup.com/personal/campus-application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://q.yingjiesheng.com/pc/personal?tabId=2&amp;partner=wspcsucceedb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易云音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.163.com/user.html/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.xiaohongshu.com/record/intern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同城</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.58.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/center/history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/shopee/2962?sourceToken=2d8cf7552c5c552718ef9efe34753301#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/records</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sanycampus.zhiye.com/Portal/Apply/Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -311,6 +455,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,15 +743,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
@@ -610,7 +760,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -627,7 +777,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -641,7 +791,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4">
@@ -652,7 +802,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
@@ -663,7 +813,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4">
@@ -674,7 +824,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4">
@@ -685,7 +835,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4">
@@ -696,7 +846,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4">
@@ -707,7 +857,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4">
@@ -718,30 +868,216 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C12" s="4">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="C13" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="C14" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>360</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -755,12 +1091,28 @@
     <hyperlink ref="E7" r:id="rId6" location="/campus/my-apply" xr:uid="{D89BDCC8-0B55-4C63-A35C-9A61A137B4AC}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{F4D5D90F-064A-47BD-B789-2D7B32BED3AA}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{C7DF9E75-E98A-4E3E-857C-D97EFF7FAD43}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{88729530-7CBE-4372-B542-089DA031BAB4}"/>
-    <hyperlink ref="E12" r:id="rId10" location="/candidateHome/applications" xr:uid="{8E667E93-0EAC-4686-AE0A-E50218302F3F}"/>
-    <hyperlink ref="E10" r:id="rId11" location="/candidateHome/applications" xr:uid="{9DD12FFA-E241-406C-8939-96E09994F70A}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{88729530-7CBE-4372-B542-089DA031BAB4}"/>
+    <hyperlink ref="E14" r:id="rId10" location="/candidateHome/applications" xr:uid="{8E667E93-0EAC-4686-AE0A-E50218302F3F}"/>
+    <hyperlink ref="E12" r:id="rId11" location="/candidateHome/applications" xr:uid="{9DD12FFA-E241-406C-8939-96E09994F70A}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{8C0CCF8D-040B-444B-8692-E1B5CAA6EC72}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{094CF083-1F4E-4541-A5F8-7AE8F0C4C745}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{E7C274A5-DF3C-4149-91D1-9DED1DD6B030}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{F23D8674-C69A-4A3E-A544-4FCE995DD99A}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{AD4DB165-4DC5-463C-BFCA-846BBD565492}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{F2A52020-CB91-4D2D-923A-B7305986E405}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{16E0E245-93E1-4C35-84D6-C3CAACF26EFA}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{1E900F7D-88CE-4EE5-953B-3D303D5A3077}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{571D3942-49C6-4E72-A960-FDFBAE498A55}"/>
+    <hyperlink ref="E26" r:id="rId21" xr:uid="{748A25DF-E9BE-4FCE-9D3B-A8A33FCADDF8}"/>
+    <hyperlink ref="E11" r:id="rId22" xr:uid="{35EA6ADC-B296-45BF-B1D3-21FE35C40B26}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{4CD2C5A2-3FD2-4914-A0F1-64E2AD78774A}"/>
+    <hyperlink ref="E10" r:id="rId24" xr:uid="{47F7D437-88AC-461B-BE63-75DFEA822044}"/>
+    <hyperlink ref="E30" r:id="rId25" location="/candidateHome/applications" xr:uid="{2BD68165-DEB9-438B-9E58-FC1CEA773CF2}"/>
+    <hyperlink ref="E29" r:id="rId26" xr:uid="{B6A8ACD5-3EF4-4231-93BD-AAE76C455802}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{A41DCF16-0905-4A66-B181-08AEFBF09F68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C865A-B184-4DD2-A49D-8B4F6385AF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D1F08-EEC0-47B5-A6C0-7DC89FDAEB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -746,20 +746,20 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -801,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -812,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -823,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -834,7 +834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -845,7 +845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -856,7 +856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -867,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -878,7 +878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -889,7 +889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -900,7 +900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -911,7 +911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -922,7 +922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -933,7 +933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -944,7 +944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -955,7 +955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -966,7 +966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -977,7 +977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -988,7 +988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -996,7 +996,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1048,33 +1048,45 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C27" s="4">
+        <v>4.16</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="C28" s="4">
+        <v>4.16</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="C29" s="4">
+        <v>4.16</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>56</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.16</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>58</v>
@@ -1122,7 +1134,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D1F08-EEC0-47B5-A6C0-7DC89FDAEB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8612320C-91F4-4F63-A05D-4DFF58531141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -374,6 +374,22 @@
   </si>
   <si>
     <t>https://sanycampus.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微众银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.taotian.com/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.webank.com/#/candidateHome/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,23 +759,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -776,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -790,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -801,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -812,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -823,7 +839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -834,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -845,7 +861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -856,7 +872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -867,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -878,7 +894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -889,7 +905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -900,7 +916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -911,7 +927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -922,7 +938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -933,7 +949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -944,7 +960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -955,7 +971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -966,7 +982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -977,7 +993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -988,7 +1004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -996,7 +1012,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1007,7 +1023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1037,7 +1053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1048,7 +1064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -1059,7 +1075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -1070,7 +1086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -1090,6 +1106,28 @@
       </c>
       <c r="E30" s="5" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1122,9 +1160,11 @@
     <hyperlink ref="E30" r:id="rId25" location="/candidateHome/applications" xr:uid="{2BD68165-DEB9-438B-9E58-FC1CEA773CF2}"/>
     <hyperlink ref="E29" r:id="rId26" xr:uid="{B6A8ACD5-3EF4-4231-93BD-AAE76C455802}"/>
     <hyperlink ref="E28" r:id="rId27" xr:uid="{A41DCF16-0905-4A66-B181-08AEFBF09F68}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{98188704-FEA7-431F-8F8A-4DBBFEB06D18}"/>
+    <hyperlink ref="E31" r:id="rId29" location="/candidateHome/applications" xr:uid="{74A80896-CF18-4069-AB20-CA5089B303F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -1134,7 +1174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8612320C-91F4-4F63-A05D-4DFF58531141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE39F4B-DC2E-4F08-BEA1-0EB973727124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -390,6 +390,30 @@
   </si>
   <si>
     <t>https://campus.webank.com/#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.ele.me/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇安信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSjdXX1F#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,23 +783,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -792,7 +816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -806,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -817,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -828,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -839,7 +863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -850,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -861,7 +885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -872,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -883,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -894,7 +918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -905,7 +929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -916,7 +940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -927,7 +951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -938,7 +962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -949,7 +973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -960,7 +984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -971,7 +995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -982,7 +1006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -993,7 +1017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1012,7 +1036,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1042,7 +1066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1053,7 +1077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1064,7 +1088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -1075,7 +1099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -1086,7 +1110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -1108,7 +1132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>61</v>
       </c>
@@ -1119,7 +1143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
@@ -1128,6 +1152,39 @@
       </c>
       <c r="E32" s="5" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1162,9 +1219,12 @@
     <hyperlink ref="E28" r:id="rId27" xr:uid="{A41DCF16-0905-4A66-B181-08AEFBF09F68}"/>
     <hyperlink ref="E32" r:id="rId28" xr:uid="{98188704-FEA7-431F-8F8A-4DBBFEB06D18}"/>
     <hyperlink ref="E31" r:id="rId29" location="/candidateHome/applications" xr:uid="{74A80896-CF18-4069-AB20-CA5089B303F9}"/>
+    <hyperlink ref="E33" r:id="rId30" xr:uid="{03ACFF2D-EC1C-4EE3-9C7E-8BD58576CD76}"/>
+    <hyperlink ref="E34" r:id="rId31" location="/candidateHome/applications" xr:uid="{4D42EE31-65F2-4CF8-886D-3C85B6C6C11A}"/>
+    <hyperlink ref="E35" r:id="rId32" xr:uid="{9BD880D8-A43F-4566-871B-301A4180A2BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -1174,7 +1234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE39F4B-DC2E-4F08-BEA1-0EB973727124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8DFAE-2D81-483C-84F7-0E4D1A2A06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -414,6 +414,22 @@
   </si>
   <si>
     <t>4.2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.quark.cn/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夸克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zpxx.caep.cn/#/positionList/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1185,6 +1201,28 @@
       </c>
       <c r="E35" s="5" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1222,9 +1260,11 @@
     <hyperlink ref="E33" r:id="rId30" xr:uid="{03ACFF2D-EC1C-4EE3-9C7E-8BD58576CD76}"/>
     <hyperlink ref="E34" r:id="rId31" location="/candidateHome/applications" xr:uid="{4D42EE31-65F2-4CF8-886D-3C85B6C6C11A}"/>
     <hyperlink ref="E35" r:id="rId32" xr:uid="{9BD880D8-A43F-4566-871B-301A4180A2BF}"/>
+    <hyperlink ref="E36" r:id="rId33" xr:uid="{EF3085B8-FDCB-4CDA-A249-E57CD21234CB}"/>
+    <hyperlink ref="E37" r:id="rId34" location="/positionList/index" xr:uid="{5D3BB5FF-1535-449E-BA7D-8F7A466D7B6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8DFAE-2D81-483C-84F7-0E4D1A2A06F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476855A7-16A8-4C10-A6EB-F905876B643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -801,21 +801,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -846,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -868,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -890,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -901,7 +901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -912,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -923,7 +923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -934,7 +934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -945,7 +945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -967,7 +967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -978,7 +978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -989,7 +989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>61</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>69</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>73</v>
       </c>
@@ -1274,7 +1274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476855A7-16A8-4C10-A6EB-F905876B643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B54EC-D6AB-41EE-BD1E-EBEFA4E94536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -430,6 +430,22 @@
   </si>
   <si>
     <t>https://zpxx.caep.cn/#/positionList/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn-jobs.cainiao.com/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.fliggy.com/personal/campus-application?lang=zh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1223,6 +1239,28 @@
       </c>
       <c r="E37" s="5" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1262,9 +1300,11 @@
     <hyperlink ref="E35" r:id="rId32" xr:uid="{9BD880D8-A43F-4566-871B-301A4180A2BF}"/>
     <hyperlink ref="E36" r:id="rId33" xr:uid="{EF3085B8-FDCB-4CDA-A249-E57CD21234CB}"/>
     <hyperlink ref="E37" r:id="rId34" location="/positionList/index" xr:uid="{5D3BB5FF-1535-449E-BA7D-8F7A466D7B6E}"/>
+    <hyperlink ref="E38" r:id="rId35" xr:uid="{23A2E95B-D23B-44F9-B249-3A4C2D1AF1D9}"/>
+    <hyperlink ref="E39" r:id="rId36" xr:uid="{FA215F59-008A-4B4D-ADA3-C01E0F4DF662}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B54EC-D6AB-41EE-BD1E-EBEFA4E94536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C17F46-6CB1-4EC9-9051-DB108A742BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -446,6 +446,14 @@
   </si>
   <si>
     <t>https://career.fliggy.com/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/myDelivery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1261,6 +1269,17 @@
       </c>
       <c r="E39" s="5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1302,9 +1321,10 @@
     <hyperlink ref="E37" r:id="rId34" location="/positionList/index" xr:uid="{5D3BB5FF-1535-449E-BA7D-8F7A466D7B6E}"/>
     <hyperlink ref="E38" r:id="rId35" xr:uid="{23A2E95B-D23B-44F9-B249-3A4C2D1AF1D9}"/>
     <hyperlink ref="E39" r:id="rId36" xr:uid="{FA215F59-008A-4B4D-ADA3-C01E0F4DF662}"/>
+    <hyperlink ref="E40" r:id="rId37" xr:uid="{3FA52EA2-13EF-4BAA-BFC4-5A59C8CCF2F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B54EC-D6AB-41EE-BD1E-EBEFA4E94536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD1027-470B-4F69-963D-9358088236BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -446,6 +446,10 @@
   </si>
   <si>
     <t>https://career.fliggy.com/personal/campus-application?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.13/24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,21 +821,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -848,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -862,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -873,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -884,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -895,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -906,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -917,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -928,7 +932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -939,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -950,18 +954,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4">
-        <v>4.13</v>
+      <c r="C11" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -972,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -983,7 +987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -994,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>61</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>69</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>73</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>77</v>
       </c>
@@ -1314,7 +1318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C17F46-6CB1-4EC9-9051-DB108A742BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9827933-E614-4F68-BA44-E4973B36DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -454,6 +454,14 @@
   </si>
   <si>
     <t>https://campushr.hikvision.com/myDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU652e4d276202cc264477df09/pb/account.html#/myDeliver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1280,6 +1288,17 @@
       </c>
       <c r="E40" s="5" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1322,9 +1341,10 @@
     <hyperlink ref="E38" r:id="rId35" xr:uid="{23A2E95B-D23B-44F9-B249-3A4C2D1AF1D9}"/>
     <hyperlink ref="E39" r:id="rId36" xr:uid="{FA215F59-008A-4B4D-ADA3-C01E0F4DF662}"/>
     <hyperlink ref="E40" r:id="rId37" xr:uid="{3FA52EA2-13EF-4BAA-BFC4-5A59C8CCF2F9}"/>
+    <hyperlink ref="E41" r:id="rId38" location="/myDeliver" xr:uid="{96EDEBFC-1F00-418D-8C76-9448F1CC2D7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9827933-E614-4F68-BA44-E4973B36DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D7939-BECE-478E-9514-506238212A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -462,6 +462,14 @@
   </si>
   <si>
     <t>https://wecruit.hotjob.cn/SU652e4d276202cc264477df09/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/didiglobal/96064?recommendCode=DS55GHty#/candidateHome/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1299,6 +1307,17 @@
       </c>
       <c r="E41" s="5" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1342,9 +1361,10 @@
     <hyperlink ref="E39" r:id="rId36" xr:uid="{FA215F59-008A-4B4D-ADA3-C01E0F4DF662}"/>
     <hyperlink ref="E40" r:id="rId37" xr:uid="{3FA52EA2-13EF-4BAA-BFC4-5A59C8CCF2F9}"/>
     <hyperlink ref="E41" r:id="rId38" location="/myDeliver" xr:uid="{96EDEBFC-1F00-418D-8C76-9448F1CC2D7F}"/>
+    <hyperlink ref="E42" r:id="rId39" location="/candidateHome/applications" xr:uid="{FB2FB498-1AB4-471C-BB7F-1A8C361F0E7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D7939-BECE-478E-9514-506238212A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9827933-E614-4F68-BA44-E4973B36DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -462,14 +462,6 @@
   </si>
   <si>
     <t>https://wecruit.hotjob.cn/SU652e4d276202cc264477df09/pb/account.html#/myDeliver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滴滴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/didiglobal/96064?recommendCode=DS55GHty#/candidateHome/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1307,17 +1299,6 @@
       </c>
       <c r="E41" s="5" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="4">
-        <v>4.29</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1361,10 +1342,9 @@
     <hyperlink ref="E39" r:id="rId36" xr:uid="{FA215F59-008A-4B4D-ADA3-C01E0F4DF662}"/>
     <hyperlink ref="E40" r:id="rId37" xr:uid="{3FA52EA2-13EF-4BAA-BFC4-5A59C8CCF2F9}"/>
     <hyperlink ref="E41" r:id="rId38" location="/myDeliver" xr:uid="{96EDEBFC-1F00-418D-8C76-9448F1CC2D7F}"/>
-    <hyperlink ref="E42" r:id="rId39" location="/candidateHome/applications" xr:uid="{FB2FB498-1AB4-471C-BB7F-1A8C361F0E7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9827933-E614-4F68-BA44-E4973B36DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF145AA-4138-432A-9D94-4DA36C59B2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -462,6 +462,21 @@
   </si>
   <si>
     <t>https://wecruit.hotjob.cn/SU652e4d276202cc264477df09/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁德时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.didiglobal.com/campus_apply/didiglobal/96064#/candidateHome/applications</t>
+  </si>
+  <si>
+    <t>https://talent.catl.com/campus-recruitment/catlhr/128461#/candidateHome/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,23 +846,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -864,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -878,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -889,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -900,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -911,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -922,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -933,7 +948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -944,7 +959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -955,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -966,7 +981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -977,7 +992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1065,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1099,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1095,7 +1110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1114,7 +1129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -1180,7 +1195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>61</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>65</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
@@ -1224,7 +1239,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>69</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>73</v>
       </c>
@@ -1257,7 +1272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>77</v>
       </c>
@@ -1279,7 +1294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>79</v>
       </c>
@@ -1290,7 +1305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>81</v>
       </c>
@@ -1299,6 +1314,28 @@
       </c>
       <c r="E41" s="5" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1342,9 +1379,10 @@
     <hyperlink ref="E39" r:id="rId36" xr:uid="{FA215F59-008A-4B4D-ADA3-C01E0F4DF662}"/>
     <hyperlink ref="E40" r:id="rId37" xr:uid="{3FA52EA2-13EF-4BAA-BFC4-5A59C8CCF2F9}"/>
     <hyperlink ref="E41" r:id="rId38" location="/myDeliver" xr:uid="{96EDEBFC-1F00-418D-8C76-9448F1CC2D7F}"/>
+    <hyperlink ref="E43" r:id="rId39" location="/candidateHome/applications" xr:uid="{93CD6698-33FA-4DAE-ABDB-9EE677015E1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -1354,7 +1392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF145AA-4138-432A-9D94-4DA36C59B2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94237615-B4F2-48AE-92E0-605F73634C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://job.xiaohongshu.com/record/intern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>58</t>
     </r>
@@ -477,6 +473,10 @@
   </si>
   <si>
     <t>https://talent.catl.com/campus-recruitment/catlhr/128461#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.xiaohongshu.com/record/campus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,21 +848,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -879,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -893,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -915,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -926,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -937,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -948,7 +948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -959,7 +959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -970,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -978,10 +978,10 @@
         <v>4.13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -989,10 +989,10 @@
         <v>4.13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1151,191 +1151,191 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="4">
-        <v>4.16</v>
-      </c>
-      <c r="E27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="C28" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="4">
-        <v>4.16</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C29" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="4">
-        <v>4.16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4.16</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="4">
         <v>4.18</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4">
         <v>4.18</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4">
         <v>4.1900000000000004</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="5" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="4">
         <v>4.21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4">
         <v>4.21</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4">
         <v>4.2300000000000004</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4">
         <v>4.2300000000000004</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="C40" s="4">
         <v>4.25</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="C41" s="4">
         <v>4.2699999999999996</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4">
         <v>4.29</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="4">
         <v>5.7</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪思敏\Desktop\面试\简历投递\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94237615-B4F2-48AE-92E0-605F73634C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC7CC2-7CBF-451F-A9D6-50162BEAF244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -477,6 +477,14 @@
   </si>
   <si>
     <t>https://job.xiaohongshu.com/record/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dearsamsung.zhiye.com/personal/deliveryRecord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,23 +854,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -879,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -893,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -904,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -915,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -926,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -937,7 +945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -948,7 +956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -959,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -970,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -981,7 +989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1025,7 +1033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>360</v>
       </c>
@@ -1036,7 +1044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
@@ -1184,7 +1192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>61</v>
       </c>
@@ -1217,7 +1225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -1228,7 +1236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
@@ -1250,7 +1258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>72</v>
       </c>
@@ -1272,7 +1280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>75</v>
       </c>
@@ -1283,7 +1291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>76</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>78</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>80</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>83</v>
       </c>
@@ -1327,7 +1335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>82</v>
       </c>
@@ -1336,6 +1344,17 @@
       </c>
       <c r="E43" s="5" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1380,9 +1399,10 @@
     <hyperlink ref="E40" r:id="rId37" xr:uid="{3FA52EA2-13EF-4BAA-BFC4-5A59C8CCF2F9}"/>
     <hyperlink ref="E41" r:id="rId38" location="/myDeliver" xr:uid="{96EDEBFC-1F00-418D-8C76-9448F1CC2D7F}"/>
     <hyperlink ref="E43" r:id="rId39" location="/candidateHome/applications" xr:uid="{93CD6698-33FA-4DAE-ABDB-9EE677015E1A}"/>
+    <hyperlink ref="E44" r:id="rId40" xr:uid="{1AAE4972-DC4B-449A-9FA6-AE2AF65757B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -1392,7 +1412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/简历投递/投递公司.xlsx
+++ b/简历投递/投递公司.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19234\Desktop\面试\简历投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC7CC2-7CBF-451F-A9D6-50162BEAF244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C55C2F-4457-4387-B4BC-7DBCB4B75974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,22 +469,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://talent.catl.com/campus-recruitment/catlhr/128461#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.xiaohongshu.com/record/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dearsamsung.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://campus.didiglobal.com/campus_apply/didiglobal/96064#/candidateHome/applications</t>
-  </si>
-  <si>
-    <t>https://talent.catl.com/campus-recruitment/catlhr/128461#/candidateHome/applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.xiaohongshu.com/record/campus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://dearsamsung.zhiye.com/personal/deliveryRecord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -967,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -997,7 +998,7 @@
         <v>4.13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1258,7 +1259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>4.29</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,18 +1344,18 @@
         <v>5.7</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4">
         <v>5.9</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1400,9 +1401,10 @@
     <hyperlink ref="E41" r:id="rId38" location="/myDeliver" xr:uid="{96EDEBFC-1F00-418D-8C76-9448F1CC2D7F}"/>
     <hyperlink ref="E43" r:id="rId39" location="/candidateHome/applications" xr:uid="{93CD6698-33FA-4DAE-ABDB-9EE677015E1A}"/>
     <hyperlink ref="E44" r:id="rId40" xr:uid="{1AAE4972-DC4B-449A-9FA6-AE2AF65757B1}"/>
+    <hyperlink ref="E42" r:id="rId41" location="/candidateHome/applications" xr:uid="{735D49D9-5249-4094-BCDD-0DAF24B5FDCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
 </worksheet>
 </file>
 
